--- a/Value/Lululemon.xlsx
+++ b/Value/Lululemon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Still Researching/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFADB8E8-12DA-1C42-890B-BB1C6D301ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E176DA-CE10-E24E-917F-C39B361D1E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -916,18 +919,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -965,12 +956,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -992,6 +977,27 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1311,10 +1317,10 @@
   <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X90" sqref="X90"/>
+      <selection pane="bottomRight" activeCell="Y102" sqref="Y102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2571,7 +2577,7 @@
         <v>37.982879652847458</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2633,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -2694,8 +2700,11 @@
       <c r="T18" s="1">
         <v>224206000</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="Z18" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2756,8 +2765,12 @@
       <c r="T19" s="10">
         <v>1558075000</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="67">
+        <f>T40-T56-T61</f>
+        <v>378819000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>102</v>
       </c>
@@ -2835,7 +2848,7 @@
         <v>0.55058875747889191</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -2897,7 +2910,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2959,7 +2972,7 @@
         <v>1333355000</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3021,7 +3034,7 @@
         <v>0.21310000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3083,7 +3096,7 @@
         <v>514000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3145,7 +3158,7 @@
         <v>1333869000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3207,7 +3220,7 @@
         <v>0.2132</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3269,7 +3282,7 @@
         <v>358547000</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3331,7 +3344,7 @@
         <v>975322000</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>103</v>
       </c>
@@ -3409,7 +3422,7 @@
         <v>0.65613936184122279</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3471,7 +3484,7 @@
         <v>0.15590000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3533,7 +3546,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6791,10 +6804,10 @@
       <c r="T83" s="1">
         <v>-323609000</v>
       </c>
-      <c r="AA83" s="32" t="s">
+      <c r="AA83" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AB83" s="33"/>
+      <c r="AB83" s="64"/>
     </row>
     <row r="84" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6857,10 +6870,10 @@
       <c r="T84" s="1">
         <v>117655000</v>
       </c>
-      <c r="AA84" s="34" t="s">
+      <c r="AA84" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="AB84" s="35"/>
+      <c r="AB84" s="66"/>
     </row>
     <row r="85" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7130,10 +7143,10 @@
       <c r="T88" s="1">
         <v>-394502000</v>
       </c>
-      <c r="AA88" s="36" t="s">
+      <c r="AA88" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="AB88" s="37">
+      <c r="AB88" s="33">
         <f>AB85/(AB86+AB87)</f>
         <v>0</v>
       </c>
@@ -7356,10 +7369,10 @@
       <c r="T91" s="1">
         <v>-23389000</v>
       </c>
-      <c r="AA91" s="36" t="s">
+      <c r="AA91" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="AB91" s="37">
+      <c r="AB91" s="33">
         <f>AB89/AB90</f>
         <v>0.26880225869257024</v>
       </c>
@@ -7425,10 +7438,10 @@
       <c r="T92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA92" s="38" t="s">
+      <c r="AA92" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="AB92" s="39">
+      <c r="AB92" s="35">
         <f>AB88*(1-AB91)</f>
         <v>0</v>
       </c>
@@ -7494,10 +7507,10 @@
       <c r="T93" s="1">
         <v>-10000000</v>
       </c>
-      <c r="AA93" s="34" t="s">
+      <c r="AA93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="AB93" s="35"/>
+      <c r="AB93" s="66"/>
     </row>
     <row r="94" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7563,7 +7576,7 @@
       <c r="AA94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AB94" s="40">
+      <c r="AB94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7628,10 +7641,10 @@
       <c r="T95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA95" s="41" t="s">
+      <c r="AA95" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="AB95" s="42">
+      <c r="AB95" s="38">
         <v>1.33</v>
       </c>
     </row>
@@ -7699,7 +7712,7 @@
       <c r="AA96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AB96" s="40">
+      <c r="AB96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7764,10 +7777,10 @@
       <c r="T97" s="1">
         <v>-812602000</v>
       </c>
-      <c r="AA97" s="38" t="s">
+      <c r="AA97" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="AB97" s="39">
+      <c r="AB97" s="35">
         <f>(AB94)+((AB95)*(AB96-AB94))</f>
         <v>9.8206500000000002E-2</v>
       </c>
@@ -7833,10 +7846,10 @@
       <c r="T98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA98" s="34" t="s">
+      <c r="AA98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="AB98" s="35"/>
+      <c r="AB98" s="66"/>
     </row>
     <row r="99" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7968,10 +7981,10 @@
       <c r="T100" s="10">
         <v>-844987000</v>
       </c>
-      <c r="AA100" s="36" t="s">
+      <c r="AA100" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="AB100" s="37">
+      <c r="AB100" s="33">
         <f>AB99/AB103</f>
         <v>2.2790315706655198E-2</v>
       </c>
@@ -8037,10 +8050,10 @@
       <c r="T101" s="1">
         <v>-6876000</v>
       </c>
-      <c r="AA101" s="41" t="s">
+      <c r="AA101" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="AB101" s="43">
+      <c r="AB101" s="39">
         <v>37778000000</v>
       </c>
     </row>
@@ -8105,10 +8118,10 @@
       <c r="T102" s="10">
         <v>109354000</v>
       </c>
-      <c r="AA102" s="36" t="s">
+      <c r="AA102" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="AB102" s="37">
+      <c r="AB102" s="33">
         <f>AB101/AB103</f>
         <v>0.97720968429334476</v>
       </c>
@@ -8174,10 +8187,10 @@
       <c r="T103" s="1">
         <v>1150517000</v>
       </c>
-      <c r="AA103" s="38" t="s">
+      <c r="AA103" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="AB103" s="44">
+      <c r="AB103" s="40">
         <f>AB99+AB101</f>
         <v>38659052000</v>
       </c>
@@ -8243,10 +8256,10 @@
       <c r="T104" s="11">
         <v>1259871000</v>
       </c>
-      <c r="AA104" s="34" t="s">
+      <c r="AA104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="AB104" s="35"/>
+      <c r="AB104" s="66"/>
     </row>
     <row r="105" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8400,33 +8413,33 @@
       <c r="T106" s="1">
         <v>994606000</v>
       </c>
-      <c r="U106" s="45">
+      <c r="U106" s="41">
         <f>T106*(1+$AB$106)</f>
         <v>1144300234.0248864</v>
       </c>
-      <c r="V106" s="45">
+      <c r="V106" s="41">
         <f t="shared" ref="V106:Y106" si="25">U106*(1+$AB$106)</f>
         <v>1316524357.9763341</v>
       </c>
-      <c r="W106" s="45">
+      <c r="W106" s="41">
         <f t="shared" si="25"/>
         <v>1514669256.9035199</v>
       </c>
-      <c r="X106" s="45">
+      <c r="X106" s="41">
         <f t="shared" si="25"/>
         <v>1742636164.6169422</v>
       </c>
-      <c r="Y106" s="45">
+      <c r="Y106" s="41">
         <f t="shared" si="25"/>
         <v>2004913474.2716184</v>
       </c>
-      <c r="Z106" s="46" t="s">
+      <c r="Z106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AA106" s="47" t="s">
+      <c r="AA106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AB106" s="48">
+      <c r="AB106" s="44">
         <f>(SUM(U4:Y4)/5)</f>
         <v>0.15050606373266023</v>
       </c>
@@ -8452,138 +8465,138 @@
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
-      <c r="U107" s="46"/>
-      <c r="V107" s="46"/>
-      <c r="W107" s="46"/>
-      <c r="X107" s="46"/>
-      <c r="Y107" s="49">
+      <c r="U107" s="42"/>
+      <c r="V107" s="42"/>
+      <c r="W107" s="42"/>
+      <c r="X107" s="42"/>
+      <c r="Y107" s="45">
         <f>Y106*(1+AB107)/(AB108-AB107)</f>
         <v>31303816178.3895</v>
       </c>
-      <c r="Z107" s="50" t="s">
+      <c r="Z107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AA107" s="51" t="s">
+      <c r="AA107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AB107" s="52">
+      <c r="AB107" s="48">
         <v>0.03</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U108" s="49">
+      <c r="U108" s="45">
         <f t="shared" ref="U108:W108" si="26">U107+U106</f>
         <v>1144300234.0248864</v>
       </c>
-      <c r="V108" s="49">
+      <c r="V108" s="45">
         <f t="shared" si="26"/>
         <v>1316524357.9763341</v>
       </c>
-      <c r="W108" s="49">
+      <c r="W108" s="45">
         <f t="shared" si="26"/>
         <v>1514669256.9035199</v>
       </c>
-      <c r="X108" s="49">
+      <c r="X108" s="45">
         <f>X107+X106</f>
         <v>1742636164.6169422</v>
       </c>
-      <c r="Y108" s="49">
+      <c r="Y108" s="45">
         <f>Y107+Y106</f>
         <v>33308729652.661118</v>
       </c>
-      <c r="Z108" s="50" t="s">
+      <c r="Z108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AA108" s="53" t="s">
+      <c r="AA108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AB108" s="54">
+      <c r="AB108" s="50">
         <f>AB105</f>
         <v>9.5968342860554362E-2</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U109" s="55" t="s">
+      <c r="U109" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="V109" s="56"/>
+      <c r="V109" s="62"/>
     </row>
     <row r="110" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U110" s="57" t="s">
+      <c r="U110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="V110" s="58">
+      <c r="V110" s="52">
         <f>NPV(AB108,U108,V108,W108,X108,Y108)</f>
         <v>25563927247.886311</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U111" s="57" t="s">
+      <c r="U111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="V111" s="58">
+      <c r="V111" s="52">
         <f>T40</f>
         <v>1259871000</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U112" s="57" t="s">
+      <c r="U112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="V112" s="58">
+      <c r="V112" s="52">
         <f>AB99</f>
         <v>881052000</v>
       </c>
     </row>
     <row r="113" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U113" s="57" t="s">
+      <c r="U113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="V113" s="58">
+      <c r="V113" s="52">
         <f>V110+V111-V112</f>
         <v>25942746247.886311</v>
       </c>
     </row>
     <row r="114" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U114" s="57" t="s">
+      <c r="U114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="V114" s="59">
-        <f>T34</f>
-        <v>130295000</v>
+      <c r="V114" s="53">
+        <f>T34*(1+(5*Z16))</f>
+        <v>123526575.90439142</v>
       </c>
     </row>
     <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U115" s="60" t="s">
+      <c r="U115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="V115" s="61">
+      <c r="V115" s="55">
         <f>V113/V114</f>
-        <v>199.10776505534602</v>
+        <v>210.0175290859336</v>
       </c>
     </row>
     <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U116" s="62" t="s">
+      <c r="U116" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="V116" s="63">
+      <c r="V116" s="57">
         <v>296.26</v>
       </c>
     </row>
     <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U117" s="64" t="s">
+      <c r="U117" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="V117" s="65">
+      <c r="V117" s="59">
         <f>V115/V116-1</f>
-        <v>-0.32792896423632611</v>
+        <v>-0.29110399957492195</v>
       </c>
     </row>
     <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U118" s="64" t="s">
+      <c r="U118" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="V118" s="66" t="str">
+      <c r="V118" s="60" t="str">
         <f>IF(V115&gt;V116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
